--- a/XLSX transformados/AL_J4_jugadores.xlsx
+++ b/XLSX transformados/AL_J4_jugadores.xlsx
@@ -787,11 +787,7 @@
       <c r="AP2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -930,11 +926,7 @@
       <c r="AP3" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1073,11 +1065,7 @@
       <c r="AP4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1216,11 +1204,7 @@
       <c r="AP5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1359,11 +1343,7 @@
       <c r="AP6" t="n">
         <v>0</v>
       </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1502,11 +1482,7 @@
       <c r="AP7" t="n">
         <v>0</v>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1645,11 +1621,7 @@
       <c r="AP8" t="n">
         <v>0</v>
       </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1788,11 +1760,7 @@
       <c r="AP9" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1931,11 +1899,7 @@
       <c r="AP10" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2074,11 +2038,7 @@
       <c r="AP11" t="n">
         <v>3</v>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2217,11 +2177,7 @@
       <c r="AP12" t="n">
         <v>0</v>
       </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2249,7 +2205,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2360,11 +2316,7 @@
       <c r="AP13" t="n">
         <v>0</v>
       </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2392,7 +2344,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2503,11 +2455,7 @@
       <c r="AP14" t="n">
         <v>0</v>
       </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2535,7 +2483,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2646,11 +2594,7 @@
       <c r="AP15" t="n">
         <v>0</v>
       </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2678,7 +2622,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2789,11 +2733,7 @@
       <c r="AP16" t="n">
         <v>0</v>
       </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2821,7 +2761,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2932,11 +2872,7 @@
       <c r="AP17" t="n">
         <v>0</v>
       </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2964,7 +2900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -3075,11 +3011,7 @@
       <c r="AP18" t="n">
         <v>0</v>
       </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3107,7 +3039,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3218,11 +3150,7 @@
       <c r="AP19" t="n">
         <v>0</v>
       </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3250,7 +3178,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -3361,11 +3289,7 @@
       <c r="AP20" t="n">
         <v>0</v>
       </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3393,7 +3317,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -3504,11 +3428,7 @@
       <c r="AP21" t="n">
         <v>0</v>
       </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AQ21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
